--- a/testData/SignInPageTestData.xlsx
+++ b/testData/SignInPageTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rushi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Madhuri_Numpy_Ninja\TestNgFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C11A7-DE12-4BAF-A767-FF547A835BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5606CAD-8FDE-4C45-BA63-D69AEFB5AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{67780DEC-5B3C-4267-85ED-BEE8D40D3BDB}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{67780DEC-5B3C-4267-85ED-BEE8D40D3BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Result</t>
   </si>
@@ -60,19 +61,22 @@
     <t>numpy</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>ninja</t>
   </si>
   <si>
-    <t>numnin</t>
-  </si>
-  <si>
-    <t>aj@234</t>
-  </si>
-  <si>
-    <t>ninjanumpy</t>
-  </si>
-  <si>
-    <t>prot@34</t>
+    <t>num</t>
+  </si>
+  <si>
+    <t>ninjan</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>userninja</t>
   </si>
 </sst>
 </file>
@@ -460,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042A5151-47EB-4064-9200-5B5339E69116}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +510,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -517,10 +521,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -528,10 +532,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -542,8 +546,53 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C1C9EF37-7466-480A-98AB-32E0215BD4D3}"/>
     <hyperlink ref="B3" r:id="rId2" display="Password@143" xr:uid="{C3535EA7-D880-4A42-A53F-2B4B4BFC7430}"/>
     <hyperlink ref="B4" r:id="rId3" display="Trial@123" xr:uid="{527750AD-611C-408E-A2ED-57D56526DF41}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{8CB1DD43-56CA-43A8-9D31-D81D46C0A612}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{A7E8943F-89D4-4850-ADF7-FC74DA40366F}"/>
+    <hyperlink ref="B5" r:id="rId4" display="Trial@123" xr:uid="{8CB1DD43-56CA-43A8-9D31-D81D46C0A612}"/>
+    <hyperlink ref="B6" r:id="rId5" display="setpass@143" xr:uid="{A7E8943F-89D4-4850-ADF7-FC74DA40366F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE1AC02-5488-487D-A3EE-27C47DC29362}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{52B810C7-57D6-4B7A-A6B1-B10A62D8B670}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
